--- a/AccINIFpac.xlsx
+++ b/AccINIFpac.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>ExcelSheet</t>
   </si>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1611,7 +1611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="6:8">
+    <row r="3" spans="6:9">
       <c r="F3" t="s">
         <v>24</v>
       </c>
@@ -1620,6 +1620,9 @@
       </c>
       <c r="H3" t="s">
         <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="6:8">
